--- a/control/Path_Control/autenticacionApi/articulos/data/Productos.xlsx
+++ b/control/Path_Control/autenticacionApi/articulos/data/Productos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +46,6 @@
     <t>MLM2127158007</t>
   </si>
   <si>
-    <t>MLM131441</t>
-  </si>
-  <si>
     <t>Llanta Bicicleta Ruta 20x1 1/8 (28-451) R20 P728 Benotto</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>MLM3339189642</t>
-  </si>
-  <si>
-    <t>MLM456634</t>
   </si>
   <si>
     <t>Llanta Delantera Patin Xiam - Producto Prueba No Ofertar</t>
@@ -498,11 +492,8 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -517,24 +508,21 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>547</v>
@@ -546,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>0.87</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/control/Path_Control/autenticacionApi/articulos/data/Productos.xlsx
+++ b/control/Path_Control/autenticacionApi/articulos/data/Productos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -46,22 +46,10 @@
     <t>MLM2127158007</t>
   </si>
   <si>
-    <t>Llanta Bicicleta Ruta 20x1 1/8 (28-451) R20 P728 Benotto</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
     <t>No hay datos disponibles</t>
   </si>
   <si>
     <t>MLM3339189642</t>
-  </si>
-  <si>
-    <t>Llanta Delantera Patin Xiam - Producto Prueba No Ofertar</t>
   </si>
 </sst>
 </file>
@@ -77,17 +65,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,9 +85,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,58 +474,16 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>547</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
